--- a/trunk/MyVehicleServiceAppBackLog.xlsx
+++ b/trunk/MyVehicleServiceAppBackLog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA543449-12CE-4C80-900A-D85451A1A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{881CC115-BD01-402C-921D-33015846A4AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>branche</t>
   </si>
@@ -80,9 +79,6 @@
     <t>40,42,43</t>
   </si>
   <si>
-    <t>w0.10a1.5d1.3m0.0</t>
-  </si>
-  <si>
     <t>millestone/version</t>
   </si>
   <si>
@@ -93,12 +89,30 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Change subscriber's password from workdesk</t>
+  </si>
+  <si>
+    <t>w0.11a1.5d1.4m0.0</t>
+  </si>
+  <si>
+    <t>Change subscriber's password. Improve ws-ms-login</t>
+  </si>
+  <si>
+    <t>Change subscriber's password. New db functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +149,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -180,6 +206,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A212B3FD-B2B3-4A56-965C-805E735B2297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -557,79 +590,79 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>39</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>43</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>40</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>42</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -645,15 +678,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
         <v>44</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
@@ -663,15 +694,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>45</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
@@ -685,36 +714,70 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4">
+        <v>53.54</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>54</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>

--- a/trunk/MyVehicleServiceAppBackLog.xlsx
+++ b/trunk/MyVehicleServiceAppBackLog.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>branche</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Localization</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>tasknumber</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>ws-mvs-vehicle. Connect web-servive with Heroku DB</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>canceled</t>
   </si>
   <si>
@@ -107,6 +101,18 @@
   </si>
   <si>
     <t>Change subscriber's password. New db functions</t>
+  </si>
+  <si>
+    <t>w0.12a1.6d1.4m0.0</t>
+  </si>
+  <si>
+    <t>Add buttons: add new mileage, add new service invoice, new servive report(pdf)</t>
+  </si>
+  <si>
+    <t>Modify workdesk</t>
+  </si>
+  <si>
+    <t>issue created</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +161,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -210,9 +210,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,16 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.109375" customWidth="1"/>
@@ -551,13 +548,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -575,10 +572,10 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -594,27 +591,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7">
         <v>43</v>
@@ -623,46 +620,46 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>40</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7">
         <v>42</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -675,125 +672,151 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7">
+        <v>53.54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4">
-        <v>53.54</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="C16" s="7">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4">
-        <v>54</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -1467,6 +1490,22 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/MyVehicleServiceAppBackLog.xlsx
+++ b/trunk/MyVehicleServiceAppBackLog.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>branche</t>
   </si>
@@ -112,7 +112,28 @@
     <t>Modify workdesk</t>
   </si>
   <si>
-    <t>issue created</t>
+    <t>w0.13a1.7d1.5m0.0</t>
+  </si>
+  <si>
+    <t>mvs-web. Button "Add new vehicle"</t>
+  </si>
+  <si>
+    <t>task created</t>
+  </si>
+  <si>
+    <t>mvs-web. Improve vehicle-register.jsp</t>
+  </si>
+  <si>
+    <t>add new table "usrvehicle"</t>
+  </si>
+  <si>
+    <t>procedure addnewvehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api </t>
+  </si>
+  <si>
+    <t>ws-mvs-vehicle. Add new vehicle service</t>
   </si>
 </sst>
 </file>
@@ -527,7 +548,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,77 +692,77 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>60</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>61</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>60</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>62</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>63</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -819,52 +840,104 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>64</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4">
+        <v>65</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4">
+        <v>66</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4">
+        <v>67</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4">
+        <v>66.67</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
